--- a/inst/extdata/pii_dict.xlsx
+++ b/inst/extdata/pii_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>old</t>
   </si>
@@ -150,6 +150,18 @@
   </si>
   <si>
     <t>mother_fs_name</t>
+  </si>
+  <si>
+    <t>crfs_t02b_a4_c_4</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>crfs_t02b_location_name</t>
+  </si>
+  <si>
+    <t>location_name</t>
   </si>
 </sst>
 </file>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,7 +499,7 @@
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -495,7 +507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -503,7 +515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -511,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -519,7 +531,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -527,7 +539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -535,7 +547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -543,7 +555,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -551,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -559,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -567,7 +579,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -575,7 +587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,7 +595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -591,7 +603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -599,71 +611,87 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/pii_dict.xlsx
+++ b/inst/extdata/pii_dict.xlsx
@@ -65,9 +65,6 @@
     <t>phone_owner</t>
   </si>
   <si>
-    <t>date_day0</t>
-  </si>
-  <si>
     <t>consent_pid</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>location_name</t>
+  </si>
+  <si>
+    <t>date_visit</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -509,15 +509,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -528,7 +528,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,23 +536,23 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,98 +597,98 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>

--- a/inst/extdata/pii_dict.xlsx
+++ b/inst/extdata/pii_dict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>old</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>date_visit</t>
+  </si>
+  <si>
+    <t>a3_a3_a_7</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>a3_a3_a_4</t>
+  </si>
+  <si>
+    <t>ymob</t>
+  </si>
+  <si>
+    <t>yob</t>
+  </si>
+  <si>
+    <t>a3_yob</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>device_id</t>
   </si>
 </sst>
 </file>
@@ -487,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -517,181 +541,213 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
+      <c r="A7" t="s">
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>48</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/pii_dict.xlsx
+++ b/inst/extdata/pii_dict.xlsx
@@ -104,12 +104,6 @@
     <t>date_prev</t>
   </si>
   <si>
-    <t>prev_hf_cg</t>
-  </si>
-  <si>
-    <t>prev_hf_card</t>
-  </si>
-  <si>
     <t>previous_enrolment_a3_b_2a</t>
   </si>
   <si>
@@ -186,6 +180,12 @@
   </si>
   <si>
     <t>device_id</t>
+  </si>
+  <si>
+    <t>prev_hf_name_cg</t>
+  </si>
+  <si>
+    <t>prev_hf_name_card</t>
   </si>
 </sst>
 </file>
@@ -514,13 +514,13 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -536,15 +536,15 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,31 +568,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -608,7 +608,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -632,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -640,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -664,23 +664,23 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -705,28 +705,28 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -741,10 +741,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
